--- a/public/formatos/GTH_F_061_SOLICITUD_DE_AUTORIZACION_DE_HORAS_EXTRAS.xlsx
+++ b/public/formatos/GTH_F_061_SOLICITUD_DE_AUTORIZACION_DE_HORAS_EXTRAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\she\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\she\public\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -979,6 +979,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -988,9 +1084,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1006,15 +1099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1038,12 +1122,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1057,161 +1135,83 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1632,7 +1632,7 @@
   <dimension ref="B1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I8"/>
+      <selection activeCell="B10" sqref="B10:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2725,19 +2725,19 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -2746,19 +2746,19 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="2:20" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -2767,20 +2767,20 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="2:20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="8" t="s">
         <v>38</v>
       </c>
@@ -2792,18 +2792,18 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="2:20" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="28" t="s">
         <v>39</v>
       </c>
@@ -2814,29 +2814,29 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="77" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="77" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="77" t="s">
+      <c r="H6" s="49"/>
+      <c r="I6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="103" t="s">
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="104"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -2844,17 +2844,17 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
       <c r="M7" s="105"/>
       <c r="N7" s="106"/>
       <c r="O7" s="2"/>
@@ -2864,23 +2864,23 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="58" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2912,11 +2912,11 @@
       <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="34"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2952,11 +2952,11 @@
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="16"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2972,11 +2972,11 @@
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="16"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2992,11 +2992,11 @@
       <c r="G13" s="23"/>
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="16"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -3012,11 +3012,11 @@
       <c r="G14" s="23"/>
       <c r="H14" s="26"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -3032,11 +3032,11 @@
       <c r="G15" s="23"/>
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -3052,11 +3052,11 @@
       <c r="G16" s="23"/>
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -3072,11 +3072,11 @@
       <c r="G17" s="23"/>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -3092,11 +3092,11 @@
       <c r="G18" s="21"/>
       <c r="H18" s="17"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="71"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -3104,21 +3104,21 @@
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="75"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -3126,25 +3126,25 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="35" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="35" t="s">
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="51"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="77"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -3152,25 +3152,25 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="2:19" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="32" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="54"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="80"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -3178,25 +3178,25 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="2:19" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="32" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="32" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="50"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="54"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -3204,25 +3204,25 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="2:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="32" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="29" t="s">
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="63"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -3300,26 +3300,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="J8:N9"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B4:M5"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
     <mergeCell ref="I23:N23"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B20:E20"/>
@@ -3336,6 +3316,26 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J8:N9"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B4:M5"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.53" bottom="0.26" header="0.98425196850393704" footer="0.31496062992125984"/>
@@ -3367,49 +3367,49 @@
   <sheetData>
     <row r="1" spans="2:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="7" t="s">
         <v>40</v>
       </c>
@@ -3419,15 +3419,15 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:16" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
@@ -3438,353 +3438,373 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="2:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="16" spans="2:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92" t="s">
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
     </row>
     <row r="17" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="88"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="88"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
     </row>
     <row r="19" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
     </row>
     <row r="20" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="88"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
     </row>
     <row r="21" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="88"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="85"/>
     </row>
     <row r="23" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="88"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
     </row>
     <row r="24" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
     </row>
     <row r="25" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="101"/>
     </row>
     <row r="27" spans="2:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="98"/>
     </row>
     <row r="28" spans="2:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="C21:G21"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
@@ -3801,26 +3821,6 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="portrait" r:id="rId1"/>
